--- a/PIMON-2020/list/reports2020.xlsx
+++ b/PIMON-2020/list/reports2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\github_rsugio\PIMON\PIMON-2020\list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25471109-BC44-4434-A88F-E2B2F556AA8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B113F2-6EB3-4A13-A9AF-99FA1EF45FD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2700" yWindow="-120" windowWidth="26220" windowHeight="16440" xr2:uid="{F50263E1-A72A-4D88-9E93-1088C02FDDD6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="78">
   <si>
     <t>Arm</t>
   </si>
@@ -256,13 +256,25 @@
   </si>
   <si>
     <t>https://youtu.be/4c-5KzYvfUw</t>
+  </si>
+  <si>
+    <t>github</t>
+  </si>
+  <si>
+    <t>https://github.com/rsugio/PIMON/tree/master/PIMON-2020/04_IRPA</t>
+  </si>
+  <si>
+    <t>https://github.com/rsugio/PIMON/tree/master/PIMON-2020/01_CPI_Runtime</t>
+  </si>
+  <si>
+    <t>https://github.com/rsugio/PIMON/tree/master/PIMON-2020/03_XML_SIG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -288,6 +300,15 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -339,7 +360,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -764,6 +785,24 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -775,7 +814,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -963,6 +1002,69 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -981,68 +1083,26 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1359,10 +1419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1FC4604-E2A9-4E9B-BF57-A05619707BFC}">
-  <dimension ref="B2:I22"/>
+  <dimension ref="B2:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1373,12 +1433,13 @@
     <col min="4" max="4" width="35.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="30.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.28515625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="27.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.28515625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>20</v>
       </c>
@@ -1394,11 +1455,14 @@
       <c r="F3" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="51" t="s">
         <v>50</v>
       </c>
@@ -1414,14 +1478,15 @@
       <c r="F4" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="G4" s="54" t="s">
+      <c r="G4" s="55"/>
+      <c r="H4" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="24" t="s">
         <v>23</v>
       </c>
@@ -1437,47 +1502,52 @@
       <c r="F5" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="97" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="77" t="s">
+      <c r="C6" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="77" t="s">
+      <c r="D6" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="87" t="s">
+      <c r="E6" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="F6" s="85" t="s">
+      <c r="F6" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="79" t="s">
+      <c r="G6" s="80"/>
+      <c r="H6" s="74" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="80"/>
-      <c r="I7" s="1" t="s">
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="75"/>
+      <c r="J7" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="32" t="s">
         <v>40</v>
       </c>
@@ -1493,14 +1563,17 @@
       <c r="F8" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="34" t="s">
+      <c r="G8" s="97" t="s">
+        <v>77</v>
+      </c>
+      <c r="H8" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="35" t="s">
         <v>5</v>
       </c>
@@ -1516,44 +1589,49 @@
       <c r="F9" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="37" t="s">
+      <c r="G9" s="96" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B10" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="81" t="s">
+      <c r="C10" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="75" t="s">
+      <c r="D10" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="75" t="s">
+      <c r="E10" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="F10" s="90" t="s">
+      <c r="F10" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="G10" s="83" t="s">
+      <c r="G10" s="92"/>
+      <c r="H10" s="78" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="82"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="84"/>
-    </row>
-    <row r="12" spans="2:9" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="77"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="79"/>
+    </row>
+    <row r="12" spans="2:10" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="59" t="s">
         <v>10</v>
       </c>
@@ -1566,14 +1644,15 @@
       <c r="E12" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="91" t="s">
+      <c r="F12" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="G12" s="62" t="s">
+      <c r="G12" s="65"/>
+      <c r="H12" s="62" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>15</v>
       </c>
@@ -1587,11 +1666,12 @@
         <v>62</v>
       </c>
       <c r="F13" s="42"/>
-      <c r="G13" s="20" t="s">
+      <c r="G13" s="42"/>
+      <c r="H13" s="20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="21" t="s">
         <v>25</v>
       </c>
@@ -1605,11 +1685,12 @@
         <v>62</v>
       </c>
       <c r="F14" s="43"/>
-      <c r="G14" s="23" t="s">
+      <c r="G14" s="43"/>
+      <c r="H14" s="23" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
         <v>13</v>
       </c>
@@ -1623,11 +1704,12 @@
         <v>62</v>
       </c>
       <c r="F15" s="44"/>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="44"/>
+      <c r="H15" s="11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="29" t="s">
         <v>41</v>
       </c>
@@ -1641,11 +1723,12 @@
         <v>62</v>
       </c>
       <c r="F16" s="45"/>
-      <c r="G16" s="31" t="s">
+      <c r="G16" s="45"/>
+      <c r="H16" s="31" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
         <v>17</v>
       </c>
@@ -1659,41 +1742,44 @@
         <v>62</v>
       </c>
       <c r="F17" s="46"/>
-      <c r="G17" s="14" t="s">
+      <c r="G17" s="46"/>
+      <c r="H17" s="14" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B18" s="15" t="s">
         <v>27</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="71" t="s">
+      <c r="D18" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="E18" s="88" t="s">
+      <c r="E18" s="83" t="s">
         <v>64</v>
       </c>
       <c r="F18" s="47"/>
-      <c r="G18" s="73" t="s">
+      <c r="G18" s="47"/>
+      <c r="H18" s="68" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="17" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="72"/>
-      <c r="E19" s="89"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="84"/>
       <c r="F19" s="48"/>
-      <c r="G19" s="74"/>
-    </row>
-    <row r="20" spans="2:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G19" s="48"/>
+      <c r="H19" s="69"/>
+    </row>
+    <row r="20" spans="2:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
         <v>24</v>
       </c>
@@ -1707,58 +1793,62 @@
         <v>62</v>
       </c>
       <c r="F20" s="49"/>
-      <c r="G20" s="19" t="s">
+      <c r="G20" s="49"/>
+      <c r="H20" s="19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B21" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="65" t="s">
+      <c r="C21" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="D21" s="65" t="s">
+      <c r="D21" s="86" t="s">
         <v>70</v>
       </c>
-      <c r="E21" s="65" t="s">
+      <c r="E21" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="F21" s="67"/>
-      <c r="G21" s="69" t="s">
+      <c r="F21" s="88"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="90" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="66"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="70"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="89"/>
+      <c r="G22" s="95"/>
+      <c r="H22" s="91"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="19">
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="H21:H22"/>
     <mergeCell ref="D18:D19"/>
-    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
-    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
     <mergeCell ref="C10:C11"/>
-    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="F10:F11"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G6:G7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F5" r:id="rId1" xr:uid="{E1FF316D-B30B-4FC2-AD58-84359580EDFB}"/>
@@ -1768,9 +1858,11 @@
     <hyperlink ref="F9" r:id="rId5" xr:uid="{5BF6DC06-0FEF-48D2-A5FC-DF65ADC123C0}"/>
     <hyperlink ref="F10" r:id="rId6" xr:uid="{88078380-3332-4180-9127-1819E58F92C9}"/>
     <hyperlink ref="F12" r:id="rId7" xr:uid="{B022F0D0-A754-4B68-80B3-20AB5EC177F9}"/>
+    <hyperlink ref="G5" r:id="rId8" xr:uid="{53C32375-C068-4984-9635-B96A80CA3B47}"/>
+    <hyperlink ref="G8" r:id="rId9" xr:uid="{5F4CF758-72A5-4F82-B047-40DE8F57A840}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 

--- a/PIMON-2020/list/reports2020.xlsx
+++ b/PIMON-2020/list/reports2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\github_rsugio\PIMON\PIMON-2020\list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B113F2-6EB3-4A13-A9AF-99FA1EF45FD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D39F727-899A-42AA-8F93-94E15FE1299E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2700" yWindow="-120" windowWidth="26220" windowHeight="16440" xr2:uid="{F50263E1-A72A-4D88-9E93-1088C02FDDD6}"/>
   </bookViews>
@@ -1005,6 +1005,42 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1064,42 +1100,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1421,8 +1421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1FC4604-E2A9-4E9B-BF57-A05619707BFC}">
   <dimension ref="B2:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1502,7 +1502,7 @@
       <c r="F5" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="97" t="s">
+      <c r="G5" s="71" t="s">
         <v>76</v>
       </c>
       <c r="H5" s="26" t="s">
@@ -1516,20 +1516,20 @@
       <c r="B6" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="72" t="s">
+      <c r="C6" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="72" t="s">
+      <c r="D6" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="82" t="s">
+      <c r="E6" s="94" t="s">
         <v>62</v>
       </c>
-      <c r="F6" s="80" t="s">
+      <c r="F6" s="92" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="80"/>
-      <c r="H6" s="74" t="s">
+      <c r="G6" s="92"/>
+      <c r="H6" s="86" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1537,12 +1537,12 @@
       <c r="B7" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="93"/>
       <c r="G7" s="98"/>
-      <c r="H7" s="75"/>
+      <c r="H7" s="87"/>
       <c r="J7" s="1" t="s">
         <v>57</v>
       </c>
@@ -1563,7 +1563,7 @@
       <c r="F8" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="97" t="s">
+      <c r="G8" s="71" t="s">
         <v>77</v>
       </c>
       <c r="H8" s="34" t="s">
@@ -1589,7 +1589,7 @@
       <c r="F9" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="96" t="s">
+      <c r="G9" s="70" t="s">
         <v>75</v>
       </c>
       <c r="H9" s="37" t="s">
@@ -1603,20 +1603,20 @@
       <c r="B10" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="76" t="s">
+      <c r="C10" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="70" t="s">
+      <c r="D10" s="82" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="70" t="s">
+      <c r="E10" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="F10" s="85" t="s">
+      <c r="F10" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="G10" s="92"/>
-      <c r="H10" s="78" t="s">
+      <c r="G10" s="66"/>
+      <c r="H10" s="90" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1624,12 +1624,12 @@
       <c r="B11" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="77"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="93"/>
-      <c r="H11" s="79"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="91"/>
     </row>
     <row r="12" spans="2:10" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="59" t="s">
@@ -1754,15 +1754,15 @@
       <c r="C18" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="66" t="s">
+      <c r="D18" s="78" t="s">
         <v>71</v>
       </c>
-      <c r="E18" s="83" t="s">
+      <c r="E18" s="95" t="s">
         <v>64</v>
       </c>
       <c r="F18" s="47"/>
       <c r="G18" s="47"/>
-      <c r="H18" s="68" t="s">
+      <c r="H18" s="80" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1773,11 +1773,11 @@
       <c r="C19" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="67"/>
-      <c r="E19" s="84"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="96"/>
       <c r="F19" s="48"/>
       <c r="G19" s="48"/>
-      <c r="H19" s="69"/>
+      <c r="H19" s="81"/>
     </row>
     <row r="20" spans="2:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
@@ -1802,18 +1802,18 @@
       <c r="B21" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="86" t="s">
+      <c r="C21" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="D21" s="86" t="s">
+      <c r="D21" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="E21" s="86" t="s">
+      <c r="E21" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="F21" s="88"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="90" t="s">
+      <c r="F21" s="74"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="76" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1821,20 +1821,15 @@
       <c r="B22" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="87"/>
-      <c r="D22" s="87"/>
-      <c r="E22" s="87"/>
-      <c r="F22" s="89"/>
-      <c r="G22" s="95"/>
-      <c r="H22" s="91"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="H21:H22"/>
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="D10:D11"/>
@@ -1849,6 +1844,11 @@
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="G6:G7"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="H21:H22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F5" r:id="rId1" xr:uid="{E1FF316D-B30B-4FC2-AD58-84359580EDFB}"/>

--- a/PIMON-2020/list/reports2020.xlsx
+++ b/PIMON-2020/list/reports2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\github_rsugio\PIMON\PIMON-2020\list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D39F727-899A-42AA-8F93-94E15FE1299E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CFC68BD-C500-4CFC-90AA-A3C1C9F7B5D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2700" yWindow="-120" windowWidth="26220" windowHeight="16440" xr2:uid="{F50263E1-A72A-4D88-9E93-1088C02FDDD6}"/>
   </bookViews>
@@ -54,9 +54,6 @@
     <t>Сергей Федечкин</t>
   </si>
   <si>
-    <t>IRPA сервис</t>
-  </si>
-  <si>
     <t>Michal Krawczyk</t>
   </si>
   <si>
@@ -268,6 +265,10 @@
   </si>
   <si>
     <t>https://github.com/rsugio/PIMON/tree/master/PIMON-2020/03_XML_SIG</t>
+  </si>
+  <si>
+    <t>SAP Intelligent RPA
+Роботы в интеграции</t>
   </si>
 </sst>
 </file>
@@ -1422,7 +1423,7 @@
   <dimension ref="B2:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:H22"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1441,75 +1442,75 @@
     <row r="2" spans="2:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="E3" s="38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F3" s="38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G3" s="38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="52" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E4" s="53" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F4" s="55" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G4" s="55"/>
       <c r="H4" s="54" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F5" s="50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G5" s="71" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H5" s="26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1523,14 +1524,14 @@
         <v>4</v>
       </c>
       <c r="E6" s="94" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F6" s="92" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G6" s="92"/>
       <c r="H6" s="86" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1544,36 +1545,36 @@
       <c r="G7" s="98"/>
       <c r="H7" s="87"/>
       <c r="J7" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F8" s="50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G8" s="71" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H8" s="34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="35" t="s">
         <v>5</v>
       </c>
@@ -1581,48 +1582,48 @@
         <v>3</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F9" s="56" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G9" s="70" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H9" s="37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B10" s="57" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="88" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="82" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E10" s="82" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F10" s="97" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G10" s="66"/>
       <c r="H10" s="90" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="89"/>
       <c r="D11" s="83"/>
@@ -1633,145 +1634,145 @@
     </row>
     <row r="12" spans="2:10" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="60" t="s">
+      <c r="D12" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="60" t="s">
-        <v>12</v>
-      </c>
       <c r="E12" s="61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F12" s="65" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G12" s="65"/>
       <c r="H12" s="62" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13" s="42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F13" s="42"/>
       <c r="G13" s="42"/>
       <c r="H13" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>3</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E14" s="43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F14" s="43"/>
       <c r="G14" s="43"/>
       <c r="H14" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E15" s="44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F15" s="44"/>
       <c r="G15" s="44"/>
       <c r="H15" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="D16" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="30" t="s">
-        <v>43</v>
-      </c>
       <c r="E16" s="45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F16" s="45"/>
       <c r="G16" s="45"/>
       <c r="H16" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>3</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E17" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F17" s="46"/>
       <c r="G17" s="46"/>
       <c r="H17" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B18" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>3</v>
       </c>
       <c r="D18" s="78" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E18" s="95" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F18" s="47"/>
       <c r="G18" s="47"/>
       <c r="H18" s="80" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="18" t="s">
         <v>8</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>9</v>
       </c>
       <c r="D19" s="79"/>
       <c r="E19" s="96"/>
@@ -1781,45 +1782,45 @@
     </row>
     <row r="20" spans="2:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>3</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E20" s="49" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F20" s="49"/>
       <c r="G20" s="49"/>
       <c r="H20" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B21" s="63" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C21" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="D21" s="72" t="s">
-        <v>70</v>
-      </c>
       <c r="E21" s="72" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F21" s="74"/>
       <c r="G21" s="68"/>
       <c r="H21" s="76" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="64" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C22" s="73"/>
       <c r="D22" s="73"/>

--- a/PIMON-2020/list/reports2020.xlsx
+++ b/PIMON-2020/list/reports2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\github_rsugio\PIMON\PIMON-2020\list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CFC68BD-C500-4CFC-90AA-A3C1C9F7B5D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C07F8FA-C0AC-4220-8F0C-15AD9F157026}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2700" yWindow="-120" windowWidth="26220" windowHeight="16440" xr2:uid="{F50263E1-A72A-4D88-9E93-1088C02FDDD6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="88">
   <si>
     <t>Arm</t>
   </si>
@@ -75,9 +75,6 @@
     <t>Илья Кузнецов</t>
   </si>
   <si>
-    <t>CPI Adapter development</t>
-  </si>
-  <si>
     <t>Алексей Дмитриев</t>
   </si>
   <si>
@@ -235,9 +232,6 @@
   </si>
   <si>
     <t>Ilya Nesterov</t>
-  </si>
-  <si>
-    <t>14 September, 12:00</t>
   </si>
   <si>
     <t>Figaf</t>
@@ -269,6 +263,42 @@
   <si>
     <t>SAP Intelligent RPA
 Роботы в интеграции</t>
+  </si>
+  <si>
+    <t>Максим Букин</t>
+  </si>
+  <si>
+    <t>XI Tools</t>
+  </si>
+  <si>
+    <t>14 September, 14:00</t>
+  </si>
+  <si>
+    <t>14 September, 12:00 MSK</t>
+  </si>
+  <si>
+    <t>ждём</t>
+  </si>
+  <si>
+    <t>https://youtu.be/XWel9U1KP8I</t>
+  </si>
+  <si>
+    <t>https://youtu.be/l_O0aen_mpc</t>
+  </si>
+  <si>
+    <t>часть 1 - https://youtu.be/ITk0a8U32Go</t>
+  </si>
+  <si>
+    <t>https://youtu.be/C7hz8UOq4To</t>
+  </si>
+  <si>
+    <t>https://youtu.be/B3HxoGVpeFo</t>
+  </si>
+  <si>
+    <t>https://youtu.be/iccfzwhWg-k</t>
+  </si>
+  <si>
+    <t>CPI Adapter development, вебинар 2</t>
   </si>
 </sst>
 </file>
@@ -317,30 +347,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -361,7 +373,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -760,17 +772,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -782,30 +783,12 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="mediumDashed">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -815,7 +798,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -827,271 +810,166 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1099,11 +977,68 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1420,18 +1355,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1FC4604-E2A9-4E9B-BF57-A05619707BFC}">
-  <dimension ref="B2:J22"/>
+  <dimension ref="A2:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="30.5703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="27.85546875" style="1" customWidth="1"/>
@@ -1439,398 +1374,481 @@
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="25"/>
+      <c r="H4" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="C5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="F5" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="G5" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="74" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="72" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="72"/>
+      <c r="H6" s="66" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="67"/>
+      <c r="J7" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>3</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>4</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>5</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="68" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="36"/>
+      <c r="H10" s="70" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="69"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="71"/>
+    </row>
+    <row r="12" spans="1:10" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>6</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="35"/>
+      <c r="H12" s="32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>7</v>
+      </c>
+      <c r="B13" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>8</v>
+      </c>
+      <c r="B14" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" s="53" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>9</v>
+      </c>
+      <c r="B15" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="G15" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="H15" s="54" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>10</v>
+      </c>
+      <c r="B16" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" s="57"/>
+      <c r="H16" s="58" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>11</v>
+      </c>
+      <c r="B17" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="G17" s="51"/>
+      <c r="H17" s="53" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>12</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="62"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="70" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="69"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="84"/>
+      <c r="H19" s="71"/>
+    </row>
+    <row r="20" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>13</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>14</v>
+      </c>
+      <c r="B21" s="33" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="4" spans="2:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="52" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="53" t="s">
+      <c r="C21" s="77" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="55" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" s="55"/>
-      <c r="H4" s="54" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="F5" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="71" t="s">
-        <v>75</v>
-      </c>
-      <c r="H5" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="84" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="84" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="94" t="s">
-        <v>61</v>
-      </c>
-      <c r="F6" s="92" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" s="92"/>
-      <c r="H6" s="86" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="85"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="87"/>
-      <c r="J7" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="F8" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" s="71" t="s">
+      <c r="F21" s="79"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="81" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="78"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="82"/>
+    </row>
+    <row r="23" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>15</v>
+      </c>
+      <c r="B23" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="H8" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="36" t="s">
+      <c r="C23" s="41"/>
+      <c r="D23" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="E9" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" s="56" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="70" t="s">
-        <v>74</v>
-      </c>
-      <c r="H9" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B10" s="57" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="88" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="82" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="82" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" s="97" t="s">
-        <v>71</v>
-      </c>
-      <c r="G10" s="66"/>
-      <c r="H10" s="90" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="89"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="91"/>
-    </row>
-    <row r="12" spans="2:10" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="59" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="60" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="61" t="s">
-        <v>61</v>
-      </c>
-      <c r="F12" s="65" t="s">
-        <v>72</v>
-      </c>
-      <c r="G12" s="65"/>
-      <c r="H12" s="62" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="46" t="s">
-        <v>61</v>
-      </c>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B18" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="78" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" s="95" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="80" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="79"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="81"/>
-    </row>
-    <row r="20" spans="2:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B21" s="63" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="72" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21" s="72" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" s="72" t="s">
-        <v>62</v>
-      </c>
-      <c r="F21" s="74"/>
-      <c r="G21" s="68"/>
-      <c r="H21" s="76" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="64" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="69"/>
-      <c r="H22" s="77"/>
+      <c r="E23" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="42" t="s">
+        <v>78</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="20">
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="H21:H22"/>
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="D10:D11"/>
@@ -1845,11 +1863,7 @@
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="G6:G7"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="F18:F19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F5" r:id="rId1" xr:uid="{E1FF316D-B30B-4FC2-AD58-84359580EDFB}"/>
@@ -1861,9 +1875,15 @@
     <hyperlink ref="F12" r:id="rId7" xr:uid="{B022F0D0-A754-4B68-80B3-20AB5EC177F9}"/>
     <hyperlink ref="G5" r:id="rId8" xr:uid="{53C32375-C068-4984-9635-B96A80CA3B47}"/>
     <hyperlink ref="G8" r:id="rId9" xr:uid="{5F4CF758-72A5-4F82-B047-40DE8F57A840}"/>
+    <hyperlink ref="F13" r:id="rId10" xr:uid="{DB7A51EB-F12A-45E7-9C1A-5419BC473B88}"/>
+    <hyperlink ref="F14" r:id="rId11" xr:uid="{99DE92DD-95BE-43D2-B14E-19D8B913637F}"/>
+    <hyperlink ref="G15" r:id="rId12" display="https://youtu.be/ITk0a8U32Go" xr:uid="{7B933713-DA51-4A31-BBE6-AA26E6D2A471}"/>
+    <hyperlink ref="F15" r:id="rId13" xr:uid="{C184EA60-007D-44C2-8128-71CC108539B0}"/>
+    <hyperlink ref="F16" r:id="rId14" xr:uid="{BAC4F8CF-A84E-4E24-9DEB-3820BAB4D581}"/>
+    <hyperlink ref="F17" r:id="rId15" xr:uid="{05B84825-D25D-4C9C-93DB-0C17DCA69F03}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
 

--- a/PIMON-2020/list/reports2020.xlsx
+++ b/PIMON-2020/list/reports2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\github_rsugio\PIMON\PIMON-2020\list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C07F8FA-C0AC-4220-8F0C-15AD9F157026}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9F4027-D56C-4E81-BE38-7DB1EF591C79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2700" yWindow="-120" windowWidth="26220" windowHeight="16440" xr2:uid="{F50263E1-A72A-4D88-9E93-1088C02FDDD6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="90">
   <si>
     <t>Arm</t>
   </si>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t>SAP Kyma</t>
-  </si>
-  <si>
-    <t>SAP DI / DataHub</t>
   </si>
   <si>
     <t>Автор</t>
@@ -299,6 +296,15 @@
   </si>
   <si>
     <t>CPI Adapter development, вебинар 2</t>
+  </si>
+  <si>
+    <t>https://youtu.be/cNvVsbanWOM</t>
+  </si>
+  <si>
+    <t>SAP Data Intelligence: обзор решения</t>
+  </si>
+  <si>
+    <t>https://youtu.be/2ORIFGk8_L0</t>
   </si>
 </sst>
 </file>
@@ -800,7 +806,6 @@
   </cellStyleXfs>
   <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -894,8 +899,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -911,15 +914,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -962,13 +956,31 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -989,18 +1001,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1016,29 +1016,47 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1357,498 +1375,500 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1FC4604-E2A9-4E9B-BF57-A05619707BFC}">
   <dimension ref="A2:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21:E22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="37.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="30.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="27.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="23.28515625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="4.5703125" style="71" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="71" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="71" customWidth="1"/>
+    <col min="4" max="4" width="37.5703125" style="71" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="71" customWidth="1"/>
+    <col min="6" max="6" width="33.85546875" style="71" customWidth="1"/>
+    <col min="7" max="7" width="27.85546875" style="71" customWidth="1"/>
+    <col min="8" max="8" width="23.28515625" style="71" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="71"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="71">
+        <v>0</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="24"/>
+      <c r="H4" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="71" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="71">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="C5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F5" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G5" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="71" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="71">
+        <v>2</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="66"/>
+      <c r="H6" s="64" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="65"/>
+      <c r="J7" s="71" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="71">
+        <v>3</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="71" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="71">
+        <v>4</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="71" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="71">
+        <v>5</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="69" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="33"/>
+      <c r="H10" s="58" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="57"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="59"/>
+    </row>
+    <row r="12" spans="1:10" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="71">
+        <v>6</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="32"/>
+      <c r="H12" s="31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="71">
+        <v>7</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="71">
+        <v>8</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="H14" s="45" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="71">
+        <v>9</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15" s="46" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="71">
+        <v>10</v>
+      </c>
+      <c r="B16" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="49"/>
+      <c r="H16" s="50" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="71">
+        <v>11</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" s="43"/>
+      <c r="H17" s="45" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="71">
+        <v>12</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="69" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" s="52"/>
+      <c r="H18" s="58" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="57"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="59"/>
+    </row>
+    <row r="20" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="71">
+        <v>13</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="G20" s="30"/>
+      <c r="H20" s="31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="71">
+        <v>14</v>
+      </c>
+      <c r="B21" s="72" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" s="25"/>
-      <c r="H4" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>1</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>2</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="64" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="64" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="74" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" s="72" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" s="72"/>
-      <c r="H6" s="66" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="67"/>
-      <c r="J7" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>3</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="G8" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>4</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>5</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="68" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="62" t="s">
+      <c r="C21" s="73" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="73" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="75" t="s">
-        <v>69</v>
-      </c>
-      <c r="G10" s="36"/>
-      <c r="H10" s="70" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="69"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="71"/>
-    </row>
-    <row r="12" spans="1:10" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>6</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="G12" s="35"/>
-      <c r="H12" s="32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>7</v>
-      </c>
-      <c r="B13" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13" s="48" t="s">
-        <v>81</v>
-      </c>
-      <c r="G13" s="47" t="s">
-        <v>80</v>
-      </c>
-      <c r="H13" s="24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>8</v>
-      </c>
-      <c r="B14" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="F14" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="G14" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="H14" s="53" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>9</v>
-      </c>
-      <c r="B15" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="46" t="s">
-        <v>87</v>
-      </c>
-      <c r="E15" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="F15" s="48" t="s">
-        <v>84</v>
-      </c>
-      <c r="G15" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="H15" s="54" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>10</v>
-      </c>
-      <c r="B16" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="56" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="57" t="s">
-        <v>60</v>
-      </c>
-      <c r="F16" s="61" t="s">
-        <v>85</v>
-      </c>
-      <c r="G16" s="57"/>
-      <c r="H16" s="58" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>11</v>
-      </c>
-      <c r="B17" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="F17" s="52" t="s">
-        <v>86</v>
-      </c>
-      <c r="G17" s="51"/>
-      <c r="H17" s="53" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>12</v>
-      </c>
-      <c r="B18" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="68" t="s">
-        <v>68</v>
-      </c>
-      <c r="E18" s="62" t="s">
-        <v>62</v>
-      </c>
-      <c r="F18" s="62"/>
-      <c r="G18" s="83"/>
-      <c r="H18" s="70" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="69"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="84"/>
-      <c r="H19" s="71"/>
-    </row>
-    <row r="20" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>13</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="32" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>14</v>
-      </c>
-      <c r="B21" s="33" t="s">
+      <c r="F21" s="74"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="76" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="77" t="s">
         <v>64</v>
-      </c>
-      <c r="C21" s="77" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" s="77" t="s">
-        <v>67</v>
-      </c>
-      <c r="E21" s="77" t="s">
-        <v>61</v>
-      </c>
-      <c r="F21" s="79"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="81" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="43" t="s">
-        <v>65</v>
       </c>
       <c r="C22" s="78"/>
       <c r="D22" s="78"/>
       <c r="E22" s="78"/>
-      <c r="F22" s="80"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="82"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="81"/>
     </row>
     <row r="23" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="A23" s="71">
         <v>15</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="82" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="83"/>
+      <c r="D23" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41" t="s">
+      <c r="E23" s="83" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="83"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="84" t="s">
         <v>77</v>
-      </c>
-      <c r="E23" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="42" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="H21:H22"/>
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="D10:D11"/>
@@ -1864,6 +1884,11 @@
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="F18:F19"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="H21:H22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F5" r:id="rId1" xr:uid="{E1FF316D-B30B-4FC2-AD58-84359580EDFB}"/>
@@ -1881,9 +1906,11 @@
     <hyperlink ref="F15" r:id="rId13" xr:uid="{C184EA60-007D-44C2-8128-71CC108539B0}"/>
     <hyperlink ref="F16" r:id="rId14" xr:uid="{BAC4F8CF-A84E-4E24-9DEB-3820BAB4D581}"/>
     <hyperlink ref="F17" r:id="rId15" xr:uid="{05B84825-D25D-4C9C-93DB-0C17DCA69F03}"/>
+    <hyperlink ref="F18" r:id="rId16" xr:uid="{A8AE54AA-880D-41CD-9186-8037772404D8}"/>
+    <hyperlink ref="F20" r:id="rId17" xr:uid="{6A93EA20-EBA9-4E55-ADAF-4CAAFAE94974}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>
 

--- a/PIMON-2020/list/reports2020.xlsx
+++ b/PIMON-2020/list/reports2020.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\github_rsugio\PIMON\PIMON-2020\list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9F4027-D56C-4E81-BE38-7DB1EF591C79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDAB9C43-5E6E-48A3-BE77-C3D8D8440BED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="-120" windowWidth="26220" windowHeight="16440" xr2:uid="{F50263E1-A72A-4D88-9E93-1088C02FDDD6}"/>
+    <workbookView xWindow="2700" yWindow="-120" windowWidth="26220" windowHeight="16440" activeTab="1" xr2:uid="{F50263E1-A72A-4D88-9E93-1088C02FDDD6}"/>
   </bookViews>
   <sheets>
     <sheet name="reports" sheetId="1" r:id="rId1"/>
-    <sheet name="tmp" sheetId="2" r:id="rId2"/>
+    <sheet name="голосование" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="107">
   <si>
     <t>Arm</t>
   </si>
@@ -193,15 +193,6 @@
   </si>
   <si>
     <t>https://youtu.be/G65bR5hzL0g</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/drive/folders/1UvF0JNunKtApze8lQY3nr37ESOlTwXKe</t>
-  </si>
-  <si>
-    <t>нет</t>
-  </si>
-  <si>
-    <t>есть</t>
   </si>
   <si>
     <t xml:space="preserve">https://youtu.be/-5Kzc5MNeGE </t>
@@ -305,6 +296,66 @@
   </si>
   <si>
     <t>https://youtu.be/2ORIFGk8_L0</t>
+  </si>
+  <si>
+    <t>https://youtu.be/MBWWrwqg_eE</t>
+  </si>
+  <si>
+    <t>https://youtu.be/RkYa7kgFsxY</t>
+  </si>
+  <si>
+    <t>Закрытие</t>
+  </si>
+  <si>
+    <t>https://youtu.be/bj8leSVbii0</t>
+  </si>
+  <si>
+    <t>00 Открытие – 6</t>
+  </si>
+  <si>
+    <t>01 Архитектура CPI – 21</t>
+  </si>
+  <si>
+    <t>02 Обучение SAP – 5</t>
+  </si>
+  <si>
+    <t>03 XML СИГИ – 15</t>
+  </si>
+  <si>
+    <t>04 Роботы IRPA – 18</t>
+  </si>
+  <si>
+    <t>05 PO to CPI migration – 23</t>
+  </si>
+  <si>
+    <t>06 Архитектура и описание – 10</t>
+  </si>
+  <si>
+    <t>07 Integration Advisor – 6</t>
+  </si>
+  <si>
+    <t>08 Диаграммы и иконки – 9</t>
+  </si>
+  <si>
+    <t>09 Разработка адаптеров CPI – 19</t>
+  </si>
+  <si>
+    <t>10 CAI чат боты – 8</t>
+  </si>
+  <si>
+    <t>11 Kyma – 8</t>
+  </si>
+  <si>
+    <t>12 CPI Neo to CF migration – 11</t>
+  </si>
+  <si>
+    <t>13 Data Intelligence – 10</t>
+  </si>
+  <si>
+    <t>14 Figaf DevOps – 14</t>
+  </si>
+  <si>
+    <t>15 XiTools – 22</t>
   </si>
 </sst>
 </file>
@@ -353,33 +404,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="33">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -795,6 +828,30 @@
       <right/>
       <top/>
       <bottom style="mediumDashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -804,7 +861,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -815,248 +872,238 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1373,27 +1420,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1FC4604-E2A9-4E9B-BF57-A05619707BFC}">
-  <dimension ref="A2:J23"/>
+  <dimension ref="A2:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="71" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="71" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="71" customWidth="1"/>
-    <col min="4" max="4" width="37.5703125" style="71" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="71" customWidth="1"/>
-    <col min="6" max="6" width="33.85546875" style="71" customWidth="1"/>
-    <col min="7" max="7" width="27.85546875" style="71" customWidth="1"/>
-    <col min="8" max="8" width="23.28515625" style="71" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="71"/>
+    <col min="1" max="1" width="4.5703125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="37.5703125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="33.85546875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="27.85546875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="23.28515625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="5"/>
+    <col min="10" max="10" width="12.140625" style="5" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
@@ -1403,469 +1452,470 @@
       <c r="D3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>2</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="80" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="78" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="78"/>
+      <c r="H6" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="77"/>
+    </row>
+    <row r="8" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>3</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>4</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>5</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="68" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="72" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="29"/>
+      <c r="H10" s="70" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="69"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="71"/>
+    </row>
+    <row r="12" spans="1:8" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>6</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="25"/>
+      <c r="H12" s="27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>7</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>8</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="H14" s="36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>9</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>10</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" s="39"/>
+      <c r="H16" s="41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>11</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" s="34"/>
+      <c r="H17" s="36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>12</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="F18" s="81" t="s">
+        <v>84</v>
+      </c>
+      <c r="G18" s="43"/>
+      <c r="H18" s="70" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="69"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="71"/>
+    </row>
+    <row r="20" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>13</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="G20" s="24"/>
+      <c r="H20" s="27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
+        <v>14</v>
+      </c>
+      <c r="B21" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="62" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71">
-        <v>0</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="24"/>
-      <c r="H4" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="71" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="71">
-        <v>1</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" s="36" t="s">
+      <c r="D21" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" s="64" t="s">
+        <v>87</v>
+      </c>
+      <c r="G21" s="47"/>
+      <c r="H21" s="66" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="67"/>
+    </row>
+    <row r="23" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>15</v>
+      </c>
+      <c r="B23" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="J5" s="71" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="71">
-        <v>2</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="62" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="62" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="68" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" s="66" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" s="66"/>
-      <c r="H6" s="64" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="65"/>
-      <c r="J7" s="71" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="71">
-        <v>3</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="36" t="s">
+      <c r="C23" s="51"/>
+      <c r="D23" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="H8" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="71" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="71">
-        <v>4</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="13" t="s">
+      <c r="E23" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="G23" s="51"/>
+      <c r="H23" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="E9" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="25" t="s">
+    </row>
+    <row r="24" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="54"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="G9" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" s="71" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="71">
-        <v>5</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="60" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="60" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" s="69" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" s="33"/>
-      <c r="H10" s="58" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="57"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="59"/>
-    </row>
-    <row r="12" spans="1:10" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="71">
-        <v>6</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="F12" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="G12" s="32"/>
-      <c r="H12" s="31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="71">
-        <v>7</v>
-      </c>
-      <c r="B13" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="F13" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="G13" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="H13" s="23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="71">
-        <v>8</v>
-      </c>
-      <c r="B14" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="G14" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="H14" s="45" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="71">
-        <v>9</v>
-      </c>
-      <c r="B15" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="E15" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="G15" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="H15" s="46" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="71">
-        <v>10</v>
-      </c>
-      <c r="B16" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="F16" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="G16" s="49"/>
-      <c r="H16" s="50" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="71">
-        <v>11</v>
-      </c>
-      <c r="B17" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="F17" s="44" t="s">
-        <v>85</v>
-      </c>
-      <c r="G17" s="43"/>
-      <c r="H17" s="45" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="71">
-        <v>12</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="56" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="60" t="s">
-        <v>61</v>
-      </c>
-      <c r="F18" s="69" t="s">
-        <v>87</v>
-      </c>
-      <c r="G18" s="52"/>
-      <c r="H18" s="58" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="57"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="59"/>
-    </row>
-    <row r="20" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="71">
-        <v>13</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="E20" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="F20" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="G20" s="30"/>
-      <c r="H20" s="31" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="71">
-        <v>14</v>
-      </c>
-      <c r="B21" s="72" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="73" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" s="73" t="s">
-        <v>66</v>
-      </c>
-      <c r="E21" s="73" t="s">
-        <v>61</v>
-      </c>
-      <c r="F21" s="74"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="76" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="77" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="78"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="80"/>
-      <c r="H22" s="81"/>
-    </row>
-    <row r="23" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="71">
-        <v>15</v>
-      </c>
-      <c r="B23" s="82" t="s">
-        <v>75</v>
-      </c>
-      <c r="C23" s="83"/>
-      <c r="D23" s="83" t="s">
-        <v>76</v>
-      </c>
-      <c r="E23" s="83" t="s">
-        <v>59</v>
-      </c>
-      <c r="F23" s="83"/>
-      <c r="G23" s="83"/>
-      <c r="H23" s="84" t="s">
-        <v>77</v>
-      </c>
+      <c r="F24" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="G24" s="56"/>
+      <c r="H24" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -1908,23 +1958,310 @@
     <hyperlink ref="F17" r:id="rId15" xr:uid="{05B84825-D25D-4C9C-93DB-0C17DCA69F03}"/>
     <hyperlink ref="F18" r:id="rId16" xr:uid="{A8AE54AA-880D-41CD-9186-8037772404D8}"/>
     <hyperlink ref="F20" r:id="rId17" xr:uid="{6A93EA20-EBA9-4E55-ADAF-4CAAFAE94974}"/>
+    <hyperlink ref="F21" r:id="rId18" xr:uid="{C44D6C74-7026-425B-BAD7-32DBB1B3424E}"/>
+    <hyperlink ref="F23" r:id="rId19" xr:uid="{5F55069B-6923-462E-BD72-181D0C456C7C}"/>
+    <hyperlink ref="F24" r:id="rId20" xr:uid="{81443CBD-772A-4424-9E82-6B619B4D43B4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D50DE0F3-2ECF-44C5-9626-8F251721571D}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ECCCA9C-DD69-4EBB-8B26-4B0F0BF47699}">
+  <dimension ref="A3:C37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3" s="59">
+        <f>4+1+1+1+1+1+1+1+1+1+1+1+1+1+1+1+1+1+1+1</f>
+        <v>23</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>15</v>
+      </c>
+      <c r="B4" s="59">
+        <f>4+ 1+1+1+1+1+1+1+1+1+1+1+1+1+1+1+1+1+1</f>
+        <v>22</v>
+      </c>
+      <c r="C4" s="59" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="59">
+        <f>4+1+1+1+1+1+1+1+1+1+1+1+1+1+1+1+1+1</f>
+        <v>21</v>
+      </c>
+      <c r="C5" s="59" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>9</v>
+      </c>
+      <c r="B6" s="59">
+        <f>4+ 1+1+1+1+1+1+1+1+1+1+1+1+1+1+1</f>
+        <v>19</v>
+      </c>
+      <c r="C6" s="59" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="59">
+        <f>4+1+1+1+1+1+1+1+1+1+1+1+1+1+1</f>
+        <v>18</v>
+      </c>
+      <c r="C7" s="59" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" s="59">
+        <f>4+1+1+1+1+1+1+1+1+1+1+1</f>
+        <v>15</v>
+      </c>
+      <c r="C8" s="59" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>14</v>
+      </c>
+      <c r="B9" s="59">
+        <f>4+ 1+1+1+1+1+1+1+1+1+1</f>
+        <v>14</v>
+      </c>
+      <c r="C9" s="59" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>12</v>
+      </c>
+      <c r="B10" s="59">
+        <f>4+ 1+1+1+1+1+1+1</f>
+        <v>11</v>
+      </c>
+      <c r="C10" s="59" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11" s="59">
+        <f>4+1+1+1+1+1+1</f>
+        <v>10</v>
+      </c>
+      <c r="C11" s="59" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>13</v>
+      </c>
+      <c r="B12" s="59">
+        <f>4+1+1+1+1+1+1</f>
+        <v>10</v>
+      </c>
+      <c r="C12" s="59" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="B13" s="59">
+        <f>4+ 1+1+1+1+1</f>
+        <v>9</v>
+      </c>
+      <c r="C13" s="59" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14" s="59">
+        <f>4+ 1+1+1+1</f>
+        <v>8</v>
+      </c>
+      <c r="C14" s="59" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15" s="59">
+        <f>4+ 1+1+1+1</f>
+        <v>8</v>
+      </c>
+      <c r="C15" s="59" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16" s="59">
+        <f>4+1+1</f>
+        <v>6</v>
+      </c>
+      <c r="C16" s="59" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>7</v>
+      </c>
+      <c r="B17" s="59">
+        <f>4+1+1</f>
+        <v>6</v>
+      </c>
+      <c r="C17" s="59" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" s="59">
+        <f>4+1</f>
+        <v>5</v>
+      </c>
+      <c r="C18" s="59" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="60">
+        <v>5.2546296296296299E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="60">
+        <v>8.5520833333333338E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="60">
+        <v>4.4918981481481483E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="60">
+        <v>6.8113425925925938E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="61">
+        <v>1.7962962962962962E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="60">
+        <v>5.2534722222222219E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C27" s="60">
+        <v>3.5115740740740746E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C28" s="60">
+        <v>5.409722222222222E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C29" s="60">
+        <v>4.2037037037037039E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C30" s="60">
+        <v>5.2465277777777784E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C31" s="60">
+        <v>4.1365740740740745E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C32" s="60">
+        <v>4.3622685185185188E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="60">
+        <v>5.6655092592592597E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="60">
+        <v>4.2395833333333334E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="60">
+        <v>7.0682870370370368E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="60">
+        <v>6.7118055555555556E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="60">
+        <v>4.3287037037037035E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C18">
+    <sortCondition descending="1" ref="B3"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>